--- a/medicine/Soins infirmiers et profession infirmière/1922_en_santé_et_médecine/1922_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1922_en_santé_et_médecine/1922_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1922_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1922_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1922 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1922_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1922_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11 janvier : au Canada, à Toronto, premier traitement du diabète par l’insuline[1].
-1er avril : Charles Ier, empereur d'Autriche, meurt d'une pneumonie aiguë en exil sur l'île de Madère[2].
-25 mai : Lénine est victime d’une première attaque cérébrale[3].
-31 mai : en Autriche, Anna Freud (1895-1982) devient membre de la Société psychanalytique de Vienne, avec une conférence d’admission intitulée Schlagephantasie und Tagtraum (Fantasme d’être battu et rêverie)[4].
-27 juin : en France, décret « portant institution du brevet de capacité d’infirmières professionnelles[5] ».
-Été 1922 : avec la récolte de blé, fin de la famine soviétique de 1921-1922 qui a atteint le bassin de la Volga, le Nord du Caucase et l'Est de l'Ukraine et qui a fait 1,5 million de victimes[6].
-12-13 décembre : Lénine est victime d’une deuxième attaque cérébrale[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>11 janvier : au Canada, à Toronto, premier traitement du diabète par l’insuline.
+1er avril : Charles Ier, empereur d'Autriche, meurt d'une pneumonie aiguë en exil sur l'île de Madère.
+25 mai : Lénine est victime d’une première attaque cérébrale.
+31 mai : en Autriche, Anna Freud (1895-1982) devient membre de la Société psychanalytique de Vienne, avec une conférence d’admission intitulée Schlagephantasie und Tagtraum (Fantasme d’être battu et rêverie).
+27 juin : en France, décret « portant institution du brevet de capacité d’infirmières professionnelles ».
+Été 1922 : avec la récolte de blé, fin de la famine soviétique de 1921-1922 qui a atteint le bassin de la Volga, le Nord du Caucase et l'Est de l'Ukraine et qui a fait 1,5 million de victimes.
+12-13 décembre : Lénine est victime d’une deuxième attaque cérébrale.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1922_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1922_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>G. K. Chesterton publie un essai contre le mouvement eugénique : Eugenics and Other Evils (L’Eugénisme et autres fléaux).
 Sigmund Freud : Psychopathologie de la vie quotidienne est publié en France.
-En France, publication du Manuel d'éducation prophylactique contre les maladies vénériennes par le Comité national de propagande d'hygiène sociale et d'éducation prophylactique[8].</t>
+En France, publication du Manuel d'éducation prophylactique contre les maladies vénériennes par le Comité national de propagande d'hygiène sociale et d'éducation prophylactique.</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1922_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1922_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Prix Nobel de physiologie ou médecine : Archibald Hill (1886-1977) et Otto Meyerhof (1884-1951).
 Médaille Buchanan : David Bruce (1855-1931), médecin et biologiste britannique.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1922_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1922_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>9 janvier : Har Khorana, biologiste indien, prix Nobel de physiologie ou médecine en 1968.
 24 janvier : Charles Socarides (mort en 2005), psychiatre, psychanalyste, médecin, éducateur et auteur américain.
@@ -630,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1922_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1922_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +668,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>11 mars : Augustus Desiré Waller (né en 1856), physiologiste britannique.
 9 avril : Patrick Manson (né en 1844), médecin britannique.
